--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Downloads/BSC_BankMD_customization_2/BankMD_Catalog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB65167-643D-D04C-AF5F-7F3262EC6B4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE166F-F463-5141-88B9-3F045A336494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30420" windowHeight="19400" tabRatio="826" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="627">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1517,9 +1517,6 @@
     <t>01-01-2018</t>
   </si>
   <si>
-    <t>Powell</t>
-  </si>
-  <si>
     <t>OHIO</t>
   </si>
   <si>
@@ -1592,21 +1589,6 @@
     <t>EN=English name</t>
   </si>
   <si>
-    <t>NYMBUS</t>
-  </si>
-  <si>
-    <t>MTwoTwoSeven</t>
-  </si>
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>https://web.groupinterest.com/define?apiKey=c8c94344bbbd42a342dacf14b1b195d1</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store</t>
-  </si>
-  <si>
     <t>Digital Savings</t>
   </si>
   <si>
@@ -1631,12 +1613,6 @@
     <t>bankmd@nymbus.support</t>
   </si>
   <si>
-    <t>P.O. Box 279</t>
-  </si>
-  <si>
-    <t>https://itunes.apple.com/store</t>
-  </si>
-  <si>
     <t>BankMD Checking</t>
   </si>
   <si>
@@ -1673,18 +1649,12 @@
     <t>ATM Location</t>
   </si>
   <si>
-    <t>Money Manager</t>
-  </si>
-  <si>
     <t>Recurring_payment</t>
   </si>
   <si>
     <t>tttype.4</t>
   </si>
   <si>
-    <t>my Recurring payment</t>
-  </si>
-  <si>
     <t>Date Interval Limits - limits for entering date values</t>
   </si>
   <si>
@@ -1875,6 +1845,87 @@
   </si>
   <si>
     <t>Internal MCH user created in OLB. Create with all access to acc sensitive operations</t>
+  </si>
+  <si>
+    <t>DAILYLIMIT</t>
+  </si>
+  <si>
+    <t>WEEKLYLIMIT</t>
+  </si>
+  <si>
+    <t>MONTHLYLIMIT</t>
+  </si>
+  <si>
+    <t>EN = daily limit</t>
+  </si>
+  <si>
+    <t>EN = weekly limit</t>
+  </si>
+  <si>
+    <t>EN = monthly limit</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>PO Box  1437</t>
+  </si>
+  <si>
+    <t>WESTERVILLE</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Money Manager feature</t>
+  </si>
+  <si>
+    <t>branch-locator</t>
+  </si>
+  <si>
+    <t>ATM &amp; Branch Coop Locator</t>
+  </si>
+  <si>
+    <t>allpoint-atm-locator</t>
+  </si>
+  <si>
+    <t>AllPoint ATM Locator</t>
+  </si>
+  <si>
+    <t>popio</t>
+  </si>
+  <si>
+    <t>POPio virtual branch</t>
+  </si>
+  <si>
+    <t>billPay-ipay-external-transfers</t>
+  </si>
+  <si>
+    <t>iPay External transfers</t>
+  </si>
+  <si>
+    <t>billPay-ipay-p2p-payments</t>
+  </si>
+  <si>
+    <t>iPay  P2P Payments</t>
+  </si>
+  <si>
+    <t>billPay-ipay-bill-payments</t>
+  </si>
+  <si>
+    <t>iPay Bill Payments</t>
+  </si>
+  <si>
+    <t>billPay-ipay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPay 	</t>
+  </si>
+  <si>
+    <t>Recurring Payment</t>
+  </si>
+  <si>
+    <t>Deposit</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2300,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2396,9 +2447,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -2422,47 +2470,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2545,6 +2552,60 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3106,22 +3167,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3131,66 +3192,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="129">
         <v>2</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3208,325 +3269,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="87"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="87"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="87"/>
+      <c r="I17" s="124"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="87"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="87"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="87" t="s">
+      <c r="H20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="87"/>
+      <c r="I20" s="124"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="87"/>
+      <c r="I21" s="124"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="87"/>
+      <c r="I22" s="124"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="87" t="s">
+      <c r="H23" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="87"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="87"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="89"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="89"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="89"/>
+      <c r="I27" s="121"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="89" t="s">
+      <c r="H28" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="89"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="89"/>
+      <c r="I29" s="121"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -3539,405 +3600,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="89"/>
+      <c r="I31" s="121"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="89" t="s">
+      <c r="H32" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="89"/>
+      <c r="I32" s="121"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="91"/>
+      <c r="I33" s="122"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="91" t="s">
+      <c r="H34" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="91"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="93"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -3954,105 +4114,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4062,193 +4123,274 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
+      <c r="A3" s="133" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1">
+      <c r="A4" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1">
+      <c r="A5" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1">
+      <c r="A6" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1">
+      <c r="A7" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1">
+      <c r="A8" s="133" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1">
+      <c r="A9" s="133" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1">
+      <c r="A10" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="B10" t="s">
-        <v>496</v>
+      <c r="B10" s="53" t="s">
+        <v>495</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1">
+      <c r="A11" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1">
+      <c r="A12" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1">
+      <c r="A13" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1">
+      <c r="A14" s="136" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" s="136" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="C14" s="136" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="D14" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="104" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>602</v>
+      </c>
+      <c r="H14" s="136" t="s">
         <v>501</v>
       </c>
-      <c r="E14" s="29" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="136" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="104" t="s">
         <v>503</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="104" t="s">
+        <v>603</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>604</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="H15" s="104" t="s">
         <v>504</v>
       </c>
-      <c r="E15" s="30" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1">
+      <c r="A17" s="53">
+        <v>1</v>
+      </c>
+      <c r="B17" s="137" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="135">
+        <v>1</v>
+      </c>
+      <c r="D17" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="53">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="53">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="53">
+        <v>500000</v>
+      </c>
+      <c r="H17" s="53" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" customHeight="1">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="66">
-        <v>833</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4654,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5032,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5066,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5100,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5127,15 +5269,9 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="1">
-        <v>64</v>
-      </c>
-      <c r="B20" s="40">
-        <v>1</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>545</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5864,7 +6000,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6064,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6078,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6259,8 +6395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6573,20 +6709,22 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="48" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="53"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
@@ -6595,20 +6733,22 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="48" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="53"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
@@ -6617,20 +6757,22 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="48" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="53"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="52"/>
+      <c r="K19" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
@@ -6639,48 +6781,70 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="48" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="53"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="52"/>
+      <c r="K20" t="s">
+        <v>625</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>101</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="48" t="s">
+        <v>626</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>516</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="53"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>102</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="48" t="s">
+        <v>626</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>491</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="53"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="46" t="s">
+        <v>523</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -7094,23 +7258,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="101" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="101" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="101" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -7118,7 +7282,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="101" t="s">
         <v>283</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -7126,50 +7290,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="101" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="101" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="101" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="101" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="32">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="101" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="102" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7177,65 +7341,65 @@
       <c r="A12" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="103"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="119"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="120" t="s">
-        <v>596</v>
-      </c>
-      <c r="B14" s="121" t="s">
-        <v>597</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>598</v>
+      <c r="A14" s="104" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="124"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="124"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="124"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="124"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="124"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="124"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="124"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -7699,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8086,7 +8250,7 @@
         <v>424</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D27" s="56">
         <v>1</v>
@@ -8129,7 +8293,7 @@
         <v>428</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D29" s="56">
         <v>1</v>
@@ -8169,7 +8333,7 @@
         <v>431</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D31" s="56">
         <v>1</v>
@@ -8192,7 +8356,7 @@
         <v>433</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8215,7 +8379,7 @@
         <v>435</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D33" s="56">
         <v>1</v>
@@ -8238,7 +8402,7 @@
         <v>437</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8276,7 +8440,7 @@
         <v>439</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>490</v>
+        <v>608</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8296,7 +8460,7 @@
         <v>440</v>
       </c>
       <c r="B37" s="61">
-        <v>43035</v>
+        <v>43086</v>
       </c>
       <c r="D37" s="56">
         <v>1</v>
@@ -8316,7 +8480,7 @@
         <v>441</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D38" s="56">
         <v>1</v>
@@ -8336,7 +8500,7 @@
         <v>442</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D39" s="56">
         <v>1</v>
@@ -8399,9 +8563,6 @@
       <c r="A42" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="B42" t="s">
-        <v>516</v>
-      </c>
       <c r="D42" s="56">
         <v>1</v>
       </c>
@@ -8422,9 +8583,6 @@
       <c r="A43" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="B43">
-        <v>63081</v>
-      </c>
       <c r="D43" s="56">
         <v>1</v>
       </c>
@@ -8445,9 +8603,6 @@
       <c r="A44" t="s">
         <v>449</v>
       </c>
-      <c r="B44" t="s">
-        <v>517</v>
-      </c>
       <c r="D44" s="56">
         <v>1</v>
       </c>
@@ -8468,9 +8623,6 @@
       <c r="A45" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="B45" t="s">
-        <v>518</v>
-      </c>
       <c r="D45" s="56">
         <v>1</v>
       </c>
@@ -8491,9 +8643,7 @@
       <c r="A46" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="B46" s="79" t="s">
-        <v>529</v>
-      </c>
+      <c r="B46" s="78"/>
       <c r="D46" s="56">
         <v>1</v>
       </c>
@@ -8514,9 +8664,7 @@
       <c r="A47" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B47" s="79" t="s">
-        <v>519</v>
-      </c>
+      <c r="B47" s="78"/>
       <c r="D47" s="56">
         <v>1</v>
       </c>
@@ -8535,10 +8683,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B48" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D48" s="56">
         <v>1</v>
@@ -8553,12 +8701,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -8573,12 +8721,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -8593,15 +8741,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="115" t="s">
-        <v>590</v>
+      <c r="A51" s="99" t="s">
+        <v>580</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D51" s="56">
         <v>1</v>
@@ -8615,17 +8763,13 @@
       <c r="G51" s="56">
         <v>1</v>
       </c>
-      <c r="H51" s="116" t="s">
-        <v>591</v>
+      <c r="H51" s="100" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B47" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9049,28 +9193,28 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <v>13</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>508</v>
+      <c r="B29" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="C29" s="61">
         <v>1</v>
       </c>
-      <c r="D29" s="67">
-        <v>1</v>
-      </c>
-      <c r="E29" s="67"/>
+      <c r="D29" s="66">
+        <v>1</v>
+      </c>
+      <c r="E29" s="66"/>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>507</v>
+      <c r="G29" s="67" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9095,65 +9239,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="92" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="93" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="93" t="s">
         <v>483</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="73" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="22"/>
@@ -9161,7 +9305,7 @@
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="73" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="22"/>
@@ -9169,7 +9313,7 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="73" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="22"/>
@@ -9177,84 +9321,84 @@
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="107"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="95" t="s">
         <v>484</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="112" t="s">
-        <v>571</v>
-      </c>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="96" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" s="96" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="97" t="s">
         <v>486</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="97" t="s">
         <v>487</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="96" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="58" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>573</v>
-      </c>
-      <c r="C17" s="114" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="114" t="s">
-        <v>574</v>
+      <c r="D17" s="98" t="s">
+        <v>564</v>
       </c>
       <c r="E17" s="58">
         <v>1</v>
@@ -9262,13 +9406,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="58" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B18" t="s">
-        <v>576</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>577</v>
+        <v>566</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>567</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9276,16 +9420,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>576</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>577</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>579</v>
+        <v>566</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>567</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>569</v>
       </c>
       <c r="E19" s="58">
         <v>1</v>
@@ -9293,13 +9437,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
-        <v>580</v>
-      </c>
-      <c r="C20" s="114" t="s">
-        <v>581</v>
+        <v>570</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>571</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -9307,13 +9451,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B21" t="s">
-        <v>576</v>
-      </c>
-      <c r="C21" s="114" t="s">
-        <v>577</v>
+        <v>566</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>567</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -9321,16 +9465,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>573</v>
-      </c>
-      <c r="C22" s="114" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="D22" s="114" t="s">
-        <v>574</v>
+      <c r="D22" s="98" t="s">
+        <v>564</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -9431,249 +9575,326 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="19" style="70" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="70" customWidth="1"/>
-    <col min="10" max="1025" width="8.6640625" style="70" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="70"/>
+    <col min="1" max="1" width="26.83203125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="19" style="69" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="69" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625" style="69" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>509</v>
       </c>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>509</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-    </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="72" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-    </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="73" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="77" t="s">
-        <v>511</v>
-      </c>
-      <c r="B14" s="77" t="s">
+      <c r="C14" s="76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76" t="s">
         <v>512</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>513</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70" t="s">
-        <v>538</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>540</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="70" t="s">
-        <v>539</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>540</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>542</v>
+      <c r="A17" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="100" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="100" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>609</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="100" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="69" t="s">
+        <v>617</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="69" t="s">
+        <v>619</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18">
+      <c r="A24" s="69" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="69" t="s">
+        <v>623</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -9692,520 +9913,520 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="97" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="97" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="105" customWidth="1"/>
-    <col min="5" max="5" width="10" style="97" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="97" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="97" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="97" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="97" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="105"/>
+    <col min="1" max="1" width="22.33203125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="81" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="89" customWidth="1"/>
+    <col min="5" max="5" width="10" style="81" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="81" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="81" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="81" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="82"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="85"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="85"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="82"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="D6" s="82"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="D7" s="82"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="D8" s="82"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="D9" s="82"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="82"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="D11" s="82"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="D12" s="82"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="D13" s="82"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>542</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>543</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="I14" s="88" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="98"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="99" t="s">
+      <c r="J14" s="88" t="s">
         <v>547</v>
       </c>
-      <c r="D2" s="98"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="101"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="95" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>547</v>
-      </c>
-      <c r="D5" s="98"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="D6" s="98"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="D7" s="98"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="D8" s="98"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="99"/>
-      <c r="D9" s="98"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="99" t="s">
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="81">
+        <v>0</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>548</v>
       </c>
-      <c r="D10" s="98"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="D11" s="98"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="D12" s="98"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="102" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="D13" s="98"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="104" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="104" t="s">
+      <c r="C17" s="81" t="s">
         <v>549</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="D17" s="81">
+        <v>371</v>
+      </c>
+      <c r="F17" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="H17" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="E14" s="104" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="81">
+        <v>0</v>
+      </c>
+      <c r="B18" s="81" t="s">
         <v>552</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="C18" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="81">
+        <v>371</v>
+      </c>
+      <c r="F18" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="H18" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="81">
+        <v>0</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="D19" s="81">
+        <v>371</v>
+      </c>
+      <c r="F19" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="H19" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="81">
+        <v>0</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="81" t="s">
         <v>556</v>
       </c>
-      <c r="J14" s="104" t="s">
+      <c r="D20" s="81">
+        <v>371</v>
+      </c>
+      <c r="F20" s="81" t="s">
         <v>557</v>
       </c>
-      <c r="K14" s="104"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="97">
+      <c r="H20" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="81">
         <v>0</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B21" s="81" t="s">
         <v>558</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C21" s="81" t="s">
+        <v>556</v>
+      </c>
+      <c r="D21" s="81">
+        <v>313</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="81">
+        <v>0</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" s="81">
+        <v>313</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="81">
+        <v>0</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="81">
+        <v>313</v>
+      </c>
+      <c r="F23" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="D17" s="97">
-        <v>371</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>560</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="97">
+      <c r="H23" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="81">
         <v>0</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>562</v>
-      </c>
-      <c r="C18" s="97" t="s">
+      <c r="B24" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>556</v>
+      </c>
+      <c r="D24" s="81">
+        <v>712</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="81">
+        <v>0</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="81">
+        <v>712</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="81">
+        <v>0</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="81">
+        <v>712</v>
+      </c>
+      <c r="F26" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="D18" s="97">
-        <v>371</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H18" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="97">
+      <c r="H26" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="81">
         <v>0</v>
       </c>
-      <c r="B19" s="97" t="s">
-        <v>562</v>
-      </c>
-      <c r="C19" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D19" s="97">
-        <v>371</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="H19" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="97">
+      <c r="B27" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="D27" s="81">
+        <v>316</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="81">
         <v>0</v>
       </c>
-      <c r="B20" s="97" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D20" s="97">
-        <v>371</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="97">
+      <c r="B28" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="81">
+        <v>316</v>
+      </c>
+      <c r="F28" s="81" t="s">
+        <v>559</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="81">
         <v>0</v>
       </c>
-      <c r="B21" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D21" s="97">
-        <v>313</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="H21" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="97">
+      <c r="B29" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" s="81">
+        <v>316</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="81">
         <v>0</v>
       </c>
-      <c r="B22" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" s="97" t="s">
+      <c r="B30" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>556</v>
+      </c>
+      <c r="D30" s="81">
+        <v>321</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="81">
+        <v>0</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="D31" s="81">
+        <v>321</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="81">
+        <v>0</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="81">
+        <v>321</v>
+      </c>
+      <c r="F32" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="D22" s="97">
-        <v>313</v>
-      </c>
-      <c r="F22" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H22" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="97">
+      <c r="H32" s="81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="81">
         <v>0</v>
       </c>
-      <c r="B23" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D23" s="97">
-        <v>313</v>
-      </c>
-      <c r="F23" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="97">
-        <v>0</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C24" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D24" s="97">
-        <v>712</v>
-      </c>
-      <c r="F24" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="97">
-        <v>0</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C25" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="D25" s="97">
-        <v>712</v>
-      </c>
-      <c r="F25" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H25" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="97">
-        <v>0</v>
-      </c>
-      <c r="B26" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C26" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D26" s="97">
-        <v>712</v>
-      </c>
-      <c r="F26" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="H26" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="97">
-        <v>0</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="D27" s="97">
-        <v>316</v>
-      </c>
-      <c r="F27" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H27" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="97">
-        <v>0</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D28" s="97">
-        <v>316</v>
-      </c>
-      <c r="F28" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="H28" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="97">
-        <v>0</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C29" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D29" s="97">
-        <v>316</v>
-      </c>
-      <c r="F29" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="H29" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="97">
-        <v>0</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D30" s="97">
-        <v>321</v>
-      </c>
-      <c r="F30" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="H30" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="97">
-        <v>0</v>
-      </c>
-      <c r="B31" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="D31" s="97">
-        <v>321</v>
-      </c>
-      <c r="F31" s="97" t="s">
-        <v>563</v>
-      </c>
-      <c r="H31" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="97">
-        <v>0</v>
-      </c>
-      <c r="B32" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D32" s="97">
-        <v>321</v>
-      </c>
-      <c r="F32" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="H32" s="97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="97">
-        <v>0</v>
-      </c>
-      <c r="B33" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="C33" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D33" s="105">
+      <c r="B33" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" s="89">
         <v>833</v>
       </c>
-      <c r="F33" s="106">
+      <c r="F33" s="90">
         <v>0.66666666666666696</v>
       </c>
-      <c r="H33" s="97" t="s">
-        <v>561</v>
+      <c r="H33" s="81" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -11356,7 +11577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:E26"/>
     </sheetView>
   </sheetViews>
@@ -11683,51 +11904,51 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="127" t="s">
-        <v>604</v>
-      </c>
-      <c r="C24" s="128">
-        <v>1</v>
-      </c>
-      <c r="D24" s="129">
-        <v>1</v>
-      </c>
-      <c r="E24" s="127" t="s">
-        <v>605</v>
+      <c r="B24" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" s="112">
+        <v>1</v>
+      </c>
+      <c r="D24" s="113">
+        <v>1</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
-      <c r="A25" s="130">
+      <c r="A25" s="114">
         <v>9</v>
       </c>
-      <c r="B25" s="131" t="s">
-        <v>606</v>
-      </c>
-      <c r="C25" s="132">
+      <c r="B25" s="115" t="s">
+        <v>596</v>
+      </c>
+      <c r="C25" s="116">
         <v>0</v>
       </c>
-      <c r="D25" s="133">
-        <v>1</v>
-      </c>
-      <c r="E25" s="133" t="s">
-        <v>607</v>
+      <c r="D25" s="117">
+        <v>1</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
-      <c r="A26" s="130">
+      <c r="A26" s="114">
         <v>10</v>
       </c>
-      <c r="B26" s="131" t="s">
-        <v>608</v>
-      </c>
-      <c r="C26" s="132">
+      <c r="B26" s="115" t="s">
+        <v>598</v>
+      </c>
+      <c r="C26" s="116">
         <v>0</v>
       </c>
-      <c r="D26" s="133">
-        <v>1</v>
-      </c>
-      <c r="E26" s="133" t="s">
-        <v>609</v>
+      <c r="D26" s="117">
+        <v>1</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -11991,49 +12212,49 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="126">
+      <c r="A25" s="110">
         <v>9</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="110">
         <v>0</v>
       </c>
-      <c r="C25" s="126">
-        <v>1</v>
-      </c>
-      <c r="D25" s="126" t="s">
-        <v>599</v>
+      <c r="C25" s="110">
+        <v>1</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="126">
+      <c r="A26" s="110">
         <v>10</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="110">
         <v>0</v>
       </c>
-      <c r="C26" s="126">
-        <v>1</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>600</v>
+      <c r="C26" s="110">
+        <v>1</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="126">
+      <c r="A27" s="110">
         <v>11</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="110">
         <v>0</v>
       </c>
-      <c r="C27" s="126">
-        <v>1</v>
-      </c>
-      <c r="D27" s="126" t="s">
-        <v>601</v>
+      <c r="C27" s="110">
+        <v>1</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12047,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -13129,10 +13350,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -13153,10 +13374,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -13624,7 +13845,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14137,7 +14358,7 @@
     </row>
     <row r="17" spans="1:26" s="65" customFormat="1">
       <c r="A17" s="49" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B17" s="45">
         <v>101</v>
@@ -14147,7 +14368,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
@@ -14172,8 +14393,8 @@
       <c r="Z17" s="63"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="78" t="s">
-        <v>492</v>
+      <c r="A18" s="77" t="s">
+        <v>491</v>
       </c>
       <c r="B18" s="45">
         <v>102</v>
@@ -14183,7 +14404,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -14901,7 +15122,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -14909,7 +15130,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -14933,7 +15154,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -14965,7 +15186,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -14993,7 +15214,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE166F-F463-5141-88B9-3F045A336494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C97805-B20C-7E43-9FA7-914C27A9908E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="FeatureToggle" sheetId="22" r:id="rId20"/>
     <sheet name="DateIntervalLimits" sheetId="23" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1610,9 +1610,6 @@
     <t>1-855-210-6984</t>
   </si>
   <si>
-    <t>bankmd@nymbus.support</t>
-  </si>
-  <si>
     <t>BankMD Checking</t>
   </si>
   <si>
@@ -1926,13 +1923,16 @@
   </si>
   <si>
     <t>Deposit</t>
+  </si>
+  <si>
+    <t>SUPPORT@BANKMD.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2163,6 +2163,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111315"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2300,7 +2306,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2553,28 +2559,18 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2594,18 +2590,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3167,22 +3176,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3192,66 +3201,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="129">
+      <c r="H8" s="125">
         <v>2</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="125"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3269,325 +3278,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="126"/>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="124"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="124"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="130"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="130"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="124"/>
+      <c r="I19" s="130"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="124"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="130"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="130"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="121"/>
+      <c r="I25" s="132"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="121" t="s">
+      <c r="H26" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="121"/>
+      <c r="I26" s="132"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="121"/>
+      <c r="I27" s="132"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="121" t="s">
+      <c r="H28" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="121"/>
+      <c r="I28" s="132"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="121" t="s">
+      <c r="H29" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="121"/>
+      <c r="I29" s="132"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -3600,504 +3609,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="121" t="s">
+      <c r="H31" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="121"/>
+      <c r="I31" s="132"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="121" t="s">
+      <c r="H32" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="121"/>
+      <c r="I32" s="132"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="122" t="s">
+      <c r="H33" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="122"/>
+      <c r="I33" s="134"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="122"/>
+      <c r="I34" s="134"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4114,6 +4024,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4136,7 +4145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="118" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -4150,7 +4159,7 @@
       <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="118" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -4164,35 +4173,35 @@
       <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="118" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="13" customHeight="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="13" customHeight="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="118" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -4206,55 +4215,55 @@
       <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="13" customHeight="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="13" customHeight="1">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="13" customHeight="1">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="118" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="13" customHeight="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="118" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="118" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -4268,7 +4277,7 @@
       <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="118" t="s">
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -4282,7 +4291,7 @@
       <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="13" customHeight="1">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="118" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -4296,7 +4305,7 @@
       <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="118" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -4310,48 +4319,48 @@
       <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="121" t="s">
         <v>495</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="121" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="121" t="s">
         <v>349</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>500</v>
       </c>
       <c r="E14" s="104" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="G14" s="104" t="s">
         <v>601</v>
       </c>
-      <c r="G14" s="104" t="s">
-        <v>602</v>
-      </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="121" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="136" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121" t="s">
         <v>502</v>
       </c>
-      <c r="C15" s="136"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="104" t="s">
         <v>503</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="G15" s="104" t="s">
         <v>604</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>605</v>
       </c>
       <c r="H15" s="104" t="s">
         <v>504</v>
@@ -4371,10 +4380,10 @@
       <c r="A17" s="53">
         <v>1</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>606</v>
-      </c>
-      <c r="C17" s="135">
+      <c r="B17" s="122" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" s="120">
         <v>1</v>
       </c>
       <c r="D17" s="53">
@@ -5174,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5208,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5242,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6200,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6214,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6395,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BE9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -6709,21 +6718,21 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="53"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -6733,21 +6742,21 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="53"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -6757,21 +6766,21 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="53"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -6781,21 +6790,21 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="53"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -6805,7 +6814,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -6819,7 +6828,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -6829,7 +6838,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -6843,7 +6852,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -7262,7 +7271,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -7270,7 +7279,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -7294,7 +7303,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7326,7 +7335,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -7351,13 +7360,13 @@
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="B14" s="105" t="s">
         <v>586</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>587</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7863,7 +7872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -8351,12 +8360,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>521</v>
+      <c r="B32" s="138" t="s">
+        <v>626</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8374,12 +8383,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" t="s">
         <v>435</v>
       </c>
-      <c r="B33" s="61" t="s">
-        <v>521</v>
+      <c r="B33" s="138" t="s">
+        <v>626</v>
       </c>
       <c r="D33" s="56">
         <v>1</v>
@@ -8402,7 +8411,7 @@
         <v>437</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8440,7 +8449,7 @@
         <v>439</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8683,10 +8692,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" t="s">
         <v>573</v>
-      </c>
-      <c r="B48" t="s">
-        <v>574</v>
       </c>
       <c r="D48" s="56">
         <v>1</v>
@@ -8701,12 +8710,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -8721,12 +8730,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -8741,12 +8750,12 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="99" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B51" t="s">
         <v>519</v>
@@ -8764,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="100" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -9325,7 +9334,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -9358,7 +9367,7 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>485</v>
@@ -9389,16 +9398,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>562</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>563</v>
       </c>
       <c r="C17" s="98" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E17" s="58">
         <v>1</v>
@@ -9406,13 +9415,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="58" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18" t="s">
         <v>565</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="98" t="s">
         <v>566</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>567</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9420,16 +9429,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>566</v>
+      </c>
+      <c r="D19" s="98" t="s">
         <v>568</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>566</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>567</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>569</v>
       </c>
       <c r="E19" s="58">
         <v>1</v>
@@ -9437,13 +9446,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C20" s="98" t="s">
         <v>570</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>571</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -9451,13 +9460,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" s="98" t="s">
         <v>566</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>567</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -9465,16 +9474,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>489</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -9800,101 +9809,101 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="69" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="69" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>532</v>
-      </c>
       <c r="C17" s="69" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="100" t="s">
+        <v>610</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" s="100" t="s">
         <v>611</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="100" t="s">
+        <v>612</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" s="100" t="s">
         <v>613</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>609</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>615</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="100" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B21" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>532</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="69" t="s">
+        <v>616</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C22" s="100" t="s">
         <v>617</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="69" t="s">
+        <v>618</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="100" t="s">
         <v>619</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24" s="69" t="s">
+        <v>620</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C24" s="100" t="s">
         <v>621</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>623</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -9932,7 +9941,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D1" s="82"/>
     </row>
@@ -9941,7 +9950,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D2" s="82"/>
     </row>
@@ -9968,7 +9977,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D5" s="82"/>
     </row>
@@ -10005,7 +10014,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D10" s="82"/>
     </row>
@@ -10035,31 +10044,31 @@
         <v>352</v>
       </c>
       <c r="B14" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="D14" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="E14" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="F14" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="G14" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="H14" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="I14" s="88" t="s">
         <v>545</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="J14" s="88" t="s">
         <v>546</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>547</v>
       </c>
       <c r="K14" s="88"/>
     </row>
@@ -10094,19 +10103,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="81" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>548</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>549</v>
       </c>
       <c r="D17" s="81">
         <v>371</v>
       </c>
       <c r="F17" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="H17" s="81" t="s">
         <v>550</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10114,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D18" s="81">
         <v>371</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H18" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10134,19 +10143,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D19" s="81">
         <v>371</v>
       </c>
       <c r="F19" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10154,19 +10163,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D20" s="81">
         <v>371</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10174,19 +10183,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D21" s="81">
         <v>313</v>
       </c>
       <c r="F21" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10194,19 +10203,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D22" s="81">
         <v>313</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H22" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10214,19 +10223,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D23" s="81">
         <v>313</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10234,19 +10243,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D24" s="81">
         <v>712</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H24" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10254,19 +10263,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D25" s="81">
         <v>712</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10274,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D26" s="81">
         <v>712</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10294,19 +10303,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D27" s="81">
         <v>316</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10314,19 +10323,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D28" s="81">
         <v>316</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10334,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D29" s="81">
         <v>316</v>
       </c>
       <c r="F29" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10354,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D30" s="81">
         <v>321</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10374,19 +10383,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31" s="81">
         <v>321</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10394,19 +10403,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D32" s="81">
         <v>321</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10414,10 +10423,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D33" s="89">
         <v>833</v>
@@ -10426,7 +10435,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -11905,16 +11914,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="111" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" s="112">
+        <v>1</v>
+      </c>
+      <c r="D24" s="113">
+        <v>1</v>
+      </c>
+      <c r="E24" s="111" t="s">
         <v>594</v>
-      </c>
-      <c r="C24" s="112">
-        <v>1</v>
-      </c>
-      <c r="D24" s="113">
-        <v>1</v>
-      </c>
-      <c r="E24" s="111" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
@@ -11922,7 +11931,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C25" s="116">
         <v>0</v>
@@ -11931,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
@@ -11939,7 +11948,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C26" s="116">
         <v>0</v>
@@ -11948,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -12212,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12226,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12240,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12254,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12268,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -13350,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>517</v>
@@ -13374,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>518</v>

--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C97805-B20C-7E43-9FA7-914C27A9908E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C9F13F-34A7-2F4C-9C41-B30EC0A8257B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -1643,9 +1643,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>ATM Location</t>
-  </si>
-  <si>
     <t>Recurring_payment</t>
   </si>
   <si>
@@ -1926,6 +1923,9 @@
   </si>
   <si>
     <t>SUPPORT@BANKMD.COM</t>
+  </si>
+  <si>
+    <t>ATM Location MoneyPass</t>
   </si>
 </sst>
 </file>
@@ -2572,6 +2572,32 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2589,32 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3176,22 +3176,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3201,66 +3201,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="135">
         <v>2</v>
       </c>
-      <c r="I8" s="125"/>
+      <c r="I8" s="135"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3278,19 +3278,19 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="129"/>
+      <c r="I13" s="132"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -3500,103 +3500,103 @@
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="132" t="s">
+      <c r="H25" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="132"/>
+      <c r="I25" s="127"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="132" t="s">
+      <c r="H26" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="132"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="132" t="s">
+      <c r="H27" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="132"/>
+      <c r="I27" s="127"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="132" t="s">
+      <c r="H28" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="132"/>
+      <c r="I28" s="127"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="132" t="s">
+      <c r="H29" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="132"/>
+      <c r="I29" s="127"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -3609,405 +3609,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="132" t="s">
+      <c r="H31" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="132"/>
+      <c r="I31" s="127"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="132" t="s">
+      <c r="H32" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="132"/>
+      <c r="I32" s="127"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="134" t="s">
+      <c r="H33" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="134"/>
+      <c r="I33" s="128"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="134" t="s">
+      <c r="C34" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="134" t="s">
+      <c r="H34" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="134"/>
+      <c r="I34" s="128"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="127"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4024,105 +4123,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4332,13 +4332,13 @@
         <v>500</v>
       </c>
       <c r="E14" s="104" t="s">
+        <v>598</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>599</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="G14" s="104" t="s">
         <v>600</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>601</v>
       </c>
       <c r="H14" s="121" t="s">
         <v>501</v>
@@ -4354,13 +4354,13 @@
         <v>503</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15" s="104" t="s">
         <v>602</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="G15" s="104" t="s">
         <v>603</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>604</v>
       </c>
       <c r="H15" s="104" t="s">
         <v>504</v>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C17" s="120">
         <v>1</v>
@@ -6790,21 +6790,21 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="53"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="48" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="48" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -7271,7 +7271,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -7279,7 +7279,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -7303,7 +7303,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -7360,13 +7360,13 @@
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="104" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>586</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7872,7 +7872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -8364,8 +8364,8 @@
       <c r="A32" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="B32" s="138" t="s">
-        <v>626</v>
+      <c r="B32" s="123" t="s">
+        <v>625</v>
       </c>
       <c r="D32" s="56">
         <v>1</v>
@@ -8387,8 +8387,8 @@
       <c r="A33" t="s">
         <v>435</v>
       </c>
-      <c r="B33" s="138" t="s">
-        <v>626</v>
+      <c r="B33" s="123" t="s">
+        <v>625</v>
       </c>
       <c r="D33" s="56">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>437</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D34" s="56">
         <v>1</v>
@@ -8449,7 +8449,7 @@
         <v>439</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D36" s="56">
         <v>1</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B48" t="s">
         <v>572</v>
-      </c>
-      <c r="B48" t="s">
-        <v>573</v>
       </c>
       <c r="D48" s="56">
         <v>1</v>
@@ -8710,12 +8710,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -8730,12 +8730,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -8750,12 +8750,12 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="99" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B51" t="s">
         <v>519</v>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -9334,7 +9334,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="14" spans="1:5" ht="16">
       <c r="A14" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>485</v>
@@ -9398,16 +9398,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>561</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>562</v>
       </c>
       <c r="C17" s="98" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E17" s="58">
         <v>1</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" t="s">
         <v>564</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="98" t="s">
         <v>565</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>566</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9429,16 +9429,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>565</v>
+      </c>
+      <c r="D19" s="98" t="s">
         <v>567</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>566</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>568</v>
       </c>
       <c r="E19" s="58">
         <v>1</v>
@@ -9446,13 +9446,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="98" t="s">
         <v>569</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>570</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -9460,13 +9460,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C21" s="98" t="s">
         <v>565</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>566</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -9474,16 +9474,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>489</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -9586,7 +9586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -9815,40 +9815,40 @@
         <v>531</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="100" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="100" t="s">
+        <v>611</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="100" t="s">
         <v>612</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>608</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9856,54 +9856,54 @@
         <v>529</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="69" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -9941,7 +9941,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D1" s="82"/>
     </row>
@@ -9950,7 +9950,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D2" s="82"/>
     </row>
@@ -9977,7 +9977,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D5" s="82"/>
     </row>
@@ -10014,7 +10014,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D10" s="82"/>
     </row>
@@ -10044,31 +10044,31 @@
         <v>352</v>
       </c>
       <c r="B14" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="D14" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="E14" s="88" t="s">
         <v>540</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="F14" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="G14" s="88" t="s">
         <v>542</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="H14" s="88" t="s">
         <v>543</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="I14" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="J14" s="88" t="s">
         <v>545</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>546</v>
       </c>
       <c r="K14" s="88"/>
     </row>
@@ -10103,19 +10103,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="81" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="81" t="s">
         <v>547</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>548</v>
       </c>
       <c r="D17" s="81">
         <v>371</v>
       </c>
       <c r="F17" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="H17" s="81" t="s">
         <v>549</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D18" s="81">
         <v>371</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H18" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10143,19 +10143,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D19" s="81">
         <v>371</v>
       </c>
       <c r="F19" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10163,19 +10163,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D20" s="81">
         <v>371</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10183,19 +10183,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D21" s="81">
         <v>313</v>
       </c>
       <c r="F21" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10203,19 +10203,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D22" s="81">
         <v>313</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H22" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10223,19 +10223,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D23" s="81">
         <v>313</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10243,19 +10243,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D24" s="81">
         <v>712</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H24" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10263,19 +10263,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="81">
         <v>712</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10283,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D26" s="81">
         <v>712</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10303,19 +10303,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="81">
         <v>316</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10323,19 +10323,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D28" s="81">
         <v>316</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D29" s="81">
         <v>316</v>
       </c>
       <c r="F29" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D30" s="81">
         <v>321</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10383,19 +10383,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D31" s="81">
         <v>321</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10403,19 +10403,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D32" s="81">
         <v>321</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10423,10 +10423,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D33" s="89">
         <v>833</v>
@@ -10435,7 +10435,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -11914,16 +11914,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="111" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" s="112">
+        <v>1</v>
+      </c>
+      <c r="D24" s="113">
+        <v>1</v>
+      </c>
+      <c r="E24" s="111" t="s">
         <v>593</v>
-      </c>
-      <c r="C24" s="112">
-        <v>1</v>
-      </c>
-      <c r="D24" s="113">
-        <v>1</v>
-      </c>
-      <c r="E24" s="111" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
@@ -11931,7 +11931,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C25" s="116">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
@@ -11948,7 +11948,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C26" s="116">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12277,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C9F13F-34A7-2F4C-9C41-B30EC0A8257B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB5341-C504-5144-BB60-33BF18AD14E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Disclaimers" sheetId="24" r:id="rId19"/>
     <sheet name="FeatureToggle" sheetId="22" r:id="rId20"/>
     <sheet name="DateIntervalLimits" sheetId="23" r:id="rId21"/>
+    <sheet name="ClientTransactionStatusTypes" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="651">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1926,13 +1927,85 @@
   </si>
   <si>
     <t>ATM Location MoneyPass</t>
+  </si>
+  <si>
+    <t>Request's (transactions) statuses</t>
+  </si>
+  <si>
+    <t>FINALSTATUS</t>
+  </si>
+  <si>
+    <t>SHORTTEXT</t>
+  </si>
+  <si>
+    <t>EN= Status ID</t>
+  </si>
+  <si>
+    <t>EN=Status</t>
+  </si>
+  <si>
+    <t>status ID</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>VERIF</t>
+  </si>
+  <si>
+    <t>Processing Request</t>
+  </si>
+  <si>
+    <t>PASSING</t>
+  </si>
+  <si>
+    <t>Transferring to banking system</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Awaiting Approval</t>
+  </si>
+  <si>
+    <t>WAITDONE</t>
+  </si>
+  <si>
+    <t>Waiting for the completion of processing.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Rejected by the banking system</t>
+  </si>
+  <si>
+    <t>WAITMATUR</t>
+  </si>
+  <si>
+    <t>ACCOK</t>
+  </si>
+  <si>
+    <t>Successfully transferred to external system for processing.</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2169,6 +2242,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2306,7 +2391,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2575,29 +2660,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2615,6 +2677,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2837,6 +2938,449 @@
         </a:solidFill>
         <a:ln w="9360">
           <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3135240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>134440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44077E2E-1CB0-8549-A6A0-E7CBBB6A9DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9218540" cy="11704140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3623400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F07FB0B-4AEA-4D4B-A048-358D2DB5D546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9706700" cy="11501400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3738240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A83C082-B46F-754C-AE43-3539F8EBDC0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9821540" cy="11501760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3862440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9F23B2-6992-4245-BFF5-22E4FF1BDE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9945740" cy="11502120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3795840</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657DDFDD-F72F-C644-93E7-69557C7720D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9879140" cy="11502480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4122000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>64240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D88F89-FE4D-8746-AC0A-BC836184218B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10205300" cy="10871940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126720</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B5F362-9DDA-994B-876C-995B2DBBD118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13004520" cy="12445460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1267200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1B0EA2-EFB5-1942-9DE9-33E8FA3B0BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7350500" cy="9077660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3176,22 +3720,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3201,66 +3745,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="135">
+      <c r="H8" s="126">
         <v>2</v>
       </c>
-      <c r="I8" s="135"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3278,325 +3822,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="132"/>
+      <c r="I13" s="130"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="130"/>
+      <c r="I14" s="131"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="130"/>
+      <c r="I15" s="131"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="130"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="130"/>
+      <c r="I17" s="131"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="130"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="130"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="127" t="s">
+      <c r="H25" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="133"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="133"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="127" t="s">
+      <c r="H27" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="127"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="133"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="127"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -3609,504 +4153,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="127" t="s">
+      <c r="H31" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="127"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="127" t="s">
+      <c r="H32" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="127"/>
+      <c r="I32" s="133"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="128" t="s">
+      <c r="H33" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="128"/>
+      <c r="I33" s="135"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="128" t="s">
+      <c r="H34" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="128"/>
+      <c r="I34" s="135"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="127"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4123,6 +4568,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9586,7 +10130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -10441,6 +10985,378 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F244E4-D6DB-4247-B2C2-9706D577CE50}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="89" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="89" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="89" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" s="82"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="82"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="85"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="82"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="82"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="82"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="82"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="88" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="139" t="s">
+        <v>630</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="140"/>
+      <c r="B16" s="140" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="141">
+        <v>100</v>
+      </c>
+      <c r="B17" s="141">
+        <v>0</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="141">
+        <v>140</v>
+      </c>
+      <c r="B18" s="141">
+        <v>0</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>635</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="141">
+        <v>141</v>
+      </c>
+      <c r="B19" s="141">
+        <v>0</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>637</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="141">
+        <v>146</v>
+      </c>
+      <c r="B20" s="141">
+        <v>0</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>639</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="141">
+        <v>148</v>
+      </c>
+      <c r="B21" s="141">
+        <v>0</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>641</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="141">
+        <v>151</v>
+      </c>
+      <c r="B22" s="141">
+        <v>2</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>643</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="141">
+        <v>155</v>
+      </c>
+      <c r="B23" s="141">
+        <v>0</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>645</v>
+      </c>
+      <c r="D23" s="142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="141">
+        <v>160</v>
+      </c>
+      <c r="B24" s="141">
+        <v>1</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>646</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="141">
+        <v>189</v>
+      </c>
+      <c r="B25" s="141">
+        <v>2</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>648</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="141">
+        <v>190</v>
+      </c>
+      <c r="B26" s="141">
+        <v>1</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="143"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="143"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="143"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="143"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="143"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="143"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="143"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="143"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="143"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="143"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="143"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="143"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="143"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="143"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="143"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="143"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB5341-C504-5144-BB60-33BF18AD14E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59FEE19-6085-4640-A19E-F4C0D399DCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2600" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="1260" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="659">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1999,6 +1999,30 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>BankMD Rise Checking</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Loan Account</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Rise Line of Credit</t>
+  </si>
+  <si>
+    <t>LINE_OF_CREDIT</t>
+  </si>
+  <si>
+    <t>tatyp1.4</t>
+  </si>
+  <si>
+    <t>Loan Group</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2415,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2660,6 +2684,45 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2678,45 +2741,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3720,22 +3745,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3745,66 +3770,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="141">
         <v>2</v>
       </c>
-      <c r="I8" s="126"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3822,222 +3847,222 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="130"/>
+      <c r="I13" s="138"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="131" t="s">
+      <c r="H14" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="131"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="131"/>
+      <c r="I15" s="136"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="131" t="s">
+      <c r="H16" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="131"/>
+      <c r="I16" s="136"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="131" t="s">
+      <c r="H17" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="131"/>
+      <c r="I17" s="136"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="131"/>
+      <c r="I18" s="136"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="131" t="s">
+      <c r="H19" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="131"/>
+      <c r="I19" s="136"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="131"/>
+      <c r="I20" s="136"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="131" t="s">
+      <c r="H21" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="131"/>
+      <c r="I21" s="136"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="131"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="131" t="s">
+      <c r="H23" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="131"/>
+      <c r="I23" s="136"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="131" t="s">
+      <c r="H24" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="131"/>
+      <c r="I24" s="136"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
@@ -4171,12 +4196,12 @@
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
@@ -4189,94 +4214,94 @@
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="135" t="s">
+      <c r="H33" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="135"/>
+      <c r="I33" s="134"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="135" t="s">
+      <c r="H34" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="135"/>
+      <c r="I34" s="134"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
       <c r="G35" s="19"/>
       <c r="H35" s="133"/>
       <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
       <c r="G36" s="19"/>
       <c r="H36" s="133"/>
       <c r="I36" s="133"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
       <c r="G37" s="19"/>
       <c r="H37" s="133"/>
       <c r="I37" s="133"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
       <c r="G38" s="19"/>
       <c r="H38" s="133"/>
       <c r="I38" s="133"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
       <c r="G39" s="19"/>
       <c r="H39" s="133"/>
       <c r="I39" s="133"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
       <c r="G40" s="19"/>
       <c r="H40" s="133"/>
       <c r="I40" s="133"/>
@@ -4284,70 +4309,70 @@
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="19"/>
       <c r="H41" s="133"/>
       <c r="I41" s="133"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="19"/>
       <c r="H42" s="133"/>
       <c r="I42" s="133"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
       <c r="G43" s="19"/>
       <c r="H43" s="133"/>
       <c r="I43" s="133"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="19"/>
       <c r="H44" s="133"/>
       <c r="I44" s="133"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="19"/>
       <c r="H45" s="133"/>
       <c r="I45" s="133"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
       <c r="G46" s="19"/>
       <c r="H46" s="133"/>
       <c r="I46" s="133"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
       <c r="G47" s="19"/>
       <c r="H47" s="133"/>
       <c r="I47" s="133"/>
@@ -4355,10 +4380,10 @@
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
       <c r="G48" s="19"/>
       <c r="H48" s="133"/>
       <c r="I48" s="133"/>
@@ -4366,10 +4391,10 @@
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
       <c r="G49" s="19"/>
       <c r="H49" s="133"/>
       <c r="I49" s="133"/>
@@ -4377,10 +4402,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
       <c r="G50" s="19"/>
       <c r="H50" s="133"/>
       <c r="I50" s="133"/>
@@ -4388,170 +4413,269 @@
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4568,105 +4692,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4958,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5088,7 +5113,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="45">
         <v>0</v>
       </c>
@@ -5096,7 +5121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="45">
         <v>1</v>
       </c>
@@ -5104,59 +5129,71 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="45">
+        <v>0</v>
+      </c>
+      <c r="B19" s="46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="45">
+        <v>3</v>
+      </c>
+      <c r="B20" s="47">
+        <v>124</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
     </row>
@@ -5207,7 +5244,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5822,9 +5859,15 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="1"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="1">
+        <v>101</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5850,9 +5893,15 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="1"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="1">
+        <v>102</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>522</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5878,9 +5927,15 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="1"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="46">
+        <v>103</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>651</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5906,9 +5961,15 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="47"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="46">
+        <v>104</v>
+      </c>
+      <c r="B23" s="40">
+        <v>1</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>655</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6553,7 +6614,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6774,17 +6835,29 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="46">
+        <v>103</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>651</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="46"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="47">
+        <v>124</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>653</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6948,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="BE9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7401,31 +7474,51 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>103</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="48" t="s">
+        <v>624</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="55">
+        <v>102</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="53"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="52" t="s">
+        <v>651</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="47"/>
+      <c r="A24" s="47">
+        <v>104</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="48"/>
+      <c r="C24" t="s">
+        <v>654</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="55">
+        <v>401</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="53"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="52" t="s">
+        <v>655</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -7799,8 +7892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5880BA-2E98-0048-8C37-646BE064DB4F}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7923,35 +8016,42 @@
       <c r="B16" s="104"/>
       <c r="C16" s="104"/>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-    </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="1:3">
+      <c r="A17" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="109">
+        <v>104</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="108"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="108"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="108"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="108"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="108"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="108"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="108"/>
       <c r="B24" s="1"/>
     </row>
@@ -7973,7 +8073,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8220,16 +8320,24 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>103</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -10992,7 +11100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F244E4-D6DB-4247-B2C2-9706D577CE50}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -11127,32 +11235,32 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="124" t="s">
         <v>630</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="124" t="s">
         <v>631</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139" t="s">
+      <c r="C15" s="124"/>
+      <c r="D15" s="124" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="141">
+      <c r="A17" s="126">
         <v>100</v>
       </c>
-      <c r="B17" s="141">
+      <c r="B17" s="126">
         <v>0</v>
       </c>
       <c r="C17" s="89" t="s">
@@ -11163,10 +11271,10 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="141">
+      <c r="A18" s="126">
         <v>140</v>
       </c>
-      <c r="B18" s="141">
+      <c r="B18" s="126">
         <v>0</v>
       </c>
       <c r="C18" s="89" t="s">
@@ -11177,10 +11285,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="141">
+      <c r="A19" s="126">
         <v>141</v>
       </c>
-      <c r="B19" s="141">
+      <c r="B19" s="126">
         <v>0</v>
       </c>
       <c r="C19" s="89" t="s">
@@ -11191,24 +11299,24 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="141">
+      <c r="A20" s="126">
         <v>146</v>
       </c>
-      <c r="B20" s="141">
+      <c r="B20" s="126">
         <v>0</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>639</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="127" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="141">
+      <c r="A21" s="126">
         <v>148</v>
       </c>
-      <c r="B21" s="141">
+      <c r="B21" s="126">
         <v>0</v>
       </c>
       <c r="C21" s="89" t="s">
@@ -11219,10 +11327,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="141">
+      <c r="A22" s="126">
         <v>151</v>
       </c>
-      <c r="B22" s="141">
+      <c r="B22" s="126">
         <v>2</v>
       </c>
       <c r="C22" s="89" t="s">
@@ -11233,24 +11341,24 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="141">
+      <c r="A23" s="126">
         <v>155</v>
       </c>
-      <c r="B23" s="141">
+      <c r="B23" s="126">
         <v>0</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>645</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="127" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="141">
+      <c r="A24" s="126">
         <v>160</v>
       </c>
-      <c r="B24" s="141">
+      <c r="B24" s="126">
         <v>1</v>
       </c>
       <c r="C24" s="89" t="s">
@@ -11261,10 +11369,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="141">
+      <c r="A25" s="126">
         <v>189</v>
       </c>
-      <c r="B25" s="141">
+      <c r="B25" s="126">
         <v>2</v>
       </c>
       <c r="C25" s="89" t="s">
@@ -11275,10 +11383,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="141">
+      <c r="A26" s="126">
         <v>190</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="126">
         <v>1</v>
       </c>
       <c r="C26" s="89" t="s">
@@ -11289,69 +11397,69 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="143"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="128"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="143"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="128"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="143"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="128"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="143"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="128"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="143"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="128"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="143"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="128"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="143"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="128"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="143"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="128"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="143"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="128"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="143"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="128"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="143"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="143"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="128"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="143"/>
+      <c r="A38" s="128"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="128"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="143"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13211,7 +13319,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G41"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13937,7 +14045,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A20" sqref="A20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14321,15 +14429,25 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="46">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="46"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>651</v>
+      </c>
       <c r="J19" s="26"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14348,15 +14466,25 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="47">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="46"/>
+      <c r="I20" s="46" t="s">
+        <v>653</v>
+      </c>
       <c r="J20" s="26"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -14770,7 +14898,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15353,12 +15481,20 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="50"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
+    <row r="19" spans="1:26" ht="16">
+      <c r="A19" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="46">
+        <v>103</v>
+      </c>
+      <c r="C19" s="45">
+        <v>1</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>651</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -15382,10 +15518,18 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="51"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="B20" s="46">
+        <v>124</v>
+      </c>
+      <c r="C20" s="45">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>

--- a/banks/bankmd/catalog/BankMD_Catalog.xlsx
+++ b/banks/bankmd/catalog/BankMD_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59FEE19-6085-4640-A19E-F4C0D399DCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E79D3-EBB7-4246-9E72-A497FFA286FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1260" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1260" windowWidth="35900" windowHeight="19200" tabRatio="826" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="DateIntervalLimits" sheetId="23" r:id="rId21"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="26" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="660">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -2023,6 +2023,9 @@
   </si>
   <si>
     <t>Loan Group</t>
+  </si>
+  <si>
+    <t>DinersClubUSCaMasterCard</t>
   </si>
 </sst>
 </file>
@@ -2700,29 +2703,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2741,7 +2722,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3745,22 +3748,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3770,66 +3773,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="141">
+      <c r="H8" s="133">
         <v>2</v>
       </c>
-      <c r="I8" s="141"/>
+      <c r="I8" s="133"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3847,325 +3850,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="138"/>
+      <c r="I13" s="137"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="136"/>
+      <c r="I14" s="138"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="136"/>
+      <c r="I15" s="138"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="136"/>
+      <c r="I16" s="138"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="136"/>
+      <c r="I17" s="138"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="136"/>
+      <c r="I18" s="138"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="138"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="138"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="136"/>
+      <c r="I21" s="138"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="136"/>
+      <c r="I22" s="138"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="136" t="s">
+      <c r="H23" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="136"/>
+      <c r="I23" s="138"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="136"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="133" t="s">
+      <c r="H25" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="133"/>
+      <c r="I25" s="140"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="133" t="s">
+      <c r="H26" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="133"/>
+      <c r="I26" s="140"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="133" t="s">
+      <c r="H27" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="133"/>
+      <c r="I27" s="140"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="133" t="s">
+      <c r="H28" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="133"/>
+      <c r="I28" s="140"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="133" t="s">
+      <c r="H29" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="133"/>
+      <c r="I29" s="140"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4178,504 +4181,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="133" t="s">
+      <c r="H31" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="133"/>
+      <c r="I31" s="140"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="133" t="s">
+      <c r="H32" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="133"/>
+      <c r="I32" s="140"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="134" t="s">
+      <c r="H33" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="134"/>
+      <c r="I33" s="142"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="134" t="s">
+      <c r="C34" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="134" t="s">
+      <c r="H34" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="134"/>
+      <c r="I34" s="142"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="130"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4692,6 +4596,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7019,10 +7022,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7403,55 +7406,55 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="48" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>533</v>
+        <v>659</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="53"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" t="s">
-        <v>623</v>
+      <c r="K20" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="48" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>516</v>
+      <c r="F21" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="53"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>521</v>
+      <c r="K21" t="s">
+        <v>623</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="48" t="s">
@@ -7461,21 +7464,21 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="77" t="s">
-        <v>491</v>
+      <c r="F22" s="49" t="s">
+        <v>516</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="53"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="46" t="s">
-        <v>522</v>
+      <c r="K22" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="48" t="s">
@@ -7485,54 +7488,64 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="55">
-        <v>102</v>
+      <c r="F23" s="77" t="s">
+        <v>491</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="53"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="52" t="s">
-        <v>651</v>
+      <c r="K23" s="46" t="s">
+        <v>522</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="47">
-        <v>104</v>
+      <c r="A24" s="1">
+        <v>103</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" t="s">
-        <v>654</v>
+      <c r="C24" s="48" t="s">
+        <v>624</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="55">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="53"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="52" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="47"/>
+      <c r="A25" s="47">
+        <v>104</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="48"/>
+      <c r="C25" t="s">
+        <v>654</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="55">
+        <v>401</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="53"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="52" t="s">
+        <v>655</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -7543,7 +7556,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="52"/>
@@ -7650,7 +7663,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="47"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="46"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -7788,27 +7801,27 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="F44" s="54"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="52"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="47"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="F45" s="54"/>
       <c r="K45" s="52"/>
-      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="47"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="46"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -7834,15 +7847,22 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="52"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1"/>
-      <c r="C49" s="46"/>
+      <c r="C49" s="26"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="K49" s="52"/>
@@ -7856,7 +7876,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="46"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="K51" s="52"/>
@@ -7865,7 +7885,7 @@
       <c r="A52" s="1"/>
       <c r="C52" s="26"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="47"/>
+      <c r="F52" s="1"/>
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:11">
@@ -7881,6 +7901,13 @@
       <c r="E54" s="1"/>
       <c r="F54" s="47"/>
       <c r="K54" s="52"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1"/>
+      <c r="C55" s="26"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="47"/>
+      <c r="K55" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7892,7 +7919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5880BA-2E98-0048-8C37-646BE064DB4F}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -8023,7 +8050,7 @@
       <c r="B17" s="109">
         <v>104</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="130" t="s">
         <v>656</v>
       </c>
     </row>
